--- a/Datasources/Cores_new.xlsx
+++ b/Datasources/Cores_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17eef15cfa6cff41/Libraries/Downloads/Inductor Design/Datasources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos Giulia\Documents\.GIULIA\Eng Elétrica UFSM\8 SEMESTRE\GEDRE\Inductor_Design\Datasources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C56813799233073DE0B7D21D662B95E158A2A5DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9FCA55F-E9F6-41B6-8992-41C5C4A4D077}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B866052-E091-4C28-881A-C9F474D16A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -455,8 +455,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,10 +809,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -820,10 +817,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -831,10 +825,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -842,10 +833,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -853,10 +841,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -864,10 +849,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -875,10 +857,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -886,10 +865,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
